--- a/Excel/sc4.xlsx
+++ b/Excel/sc4.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Websites\audacity-mr\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,44 +60,44 @@
     <t>|&lt; Effect Menu</t>
   </si>
   <si>
-    <t>एससी 4 - ऑडेसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>एससी 4</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>एससी 4 आरएमएस / पीक वर्तनसाठी व्हेरिएबल लिफाफा अनुयायी असलेले एक स्टिरिओ कॉम्प्रेसर आहे. अंगभूत कॉम्प्रेसरच्या विपरीत, पीसी होण्यापूर्वी एससी 4 व्हॉल्यूम कमी करण्यास सुरवात करण्यासाठी "लुक-फॉरवर्ड" करत नाही.</t>
-  </si>
-  <si>
-    <t>ऑडॅसिटीच्या आवृत्ती २.3.० पासून पुढे आपण यापुढे ऑडॅसिटीचा भाग म्हणून एससी 4 पाठवत नाही,</t>
-  </si>
-  <si>
-    <t>उपलब्ध एलएडीएसपीए बंडलचा भाग म्हणून आपल्याला पाहिजे असल्यास / आवश्यक असल्यास आपण एससी 4 प्राप्त करू शकता.</t>
-  </si>
-  <si>
     <t>कृपया अधिक तपशील आणि दुव्यांसाठी ऑडॅसिटी वेबसाइटवर डाउनलोड पृष्ठाचा एलएडीएसपीए विभाग पहा.</t>
   </si>
   <si>
     <t>दुवे</t>
   </si>
   <si>
-    <t>| &lt;प्रभाव, जनरेटर आणि विश्लेषकांचे अनुक्रमणिका</t>
-  </si>
-  <si>
-    <t>| &lt;प्रभाव मेनू</t>
+    <t>एससी ४- ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>एससी ४</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहितीपुस्तिकेकडून</t>
+  </si>
+  <si>
+    <t>येथे जा:निर्देशक , शोधा</t>
+  </si>
+  <si>
+    <t>एससी ४ आरएमएस / पीक वर्तनसाठी व्हेरिएबल लिफाफा अनुयायी असलेले एक स्टिरिओ कॉम्प्रेसर आहे. अंगभूत कॉम्प्रेसरच्या विपरीत, पीसी होण्यापूर्वी एससी ४ आवाज  कमी करण्यास सुरवात करण्यासाठी "पुढे-पाहा  " करत नाही.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीच्या आवृत्ती २.3.० पासून पुढे आपण यापुढे ओड्यासिटीचा भाग म्हणून एससी ४ पाठवत नाही,</t>
+  </si>
+  <si>
+    <t>उपलब्ध एलएडीएसपीए बंडलचा भाग म्हणून आपल्याला पाहिजे असल्यास / आवश्यक असल्यास आपण एससी ४ प्राप्त करू शकता. कृपया LADSPA विभाग पहा</t>
+  </si>
+  <si>
+    <t>प्रभाव, जनरेटर आणि विश्लेषकांची अनुक्रमणिका</t>
+  </si>
+  <si>
+    <t>प्रभाव मेनू</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +113,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -144,17 +178,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -201,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +283,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,14 +494,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="153.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,128 +515,168 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>